--- a/2.3-SE-4348.502-OS/Grades.xlsx
+++ b/2.3-SE-4348.502-OS/Grades.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDFall2018\SE-4348.502-OS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Desktop\Screen-Cleaner\GitHub\UTDFall2018\2.3-SE-4348.502-OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1283E7-0B60-4EEC-A154-4BE98B9CB28F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4830" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5430" windowWidth="28755" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -73,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,23 +420,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -473,23 +455,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -665,11 +630,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +725,7 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" si="0"/>
@@ -794,7 +759,7 @@
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
-        <v>0.54</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
@@ -811,7 +776,7 @@
       <c r="I7" s="23"/>
       <c r="J7" s="23">
         <f>SUM(C7:H7)</f>
-        <v>0.8600000000000001</v>
+        <v>0.84800000000000009</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="5"/>
@@ -823,7 +788,7 @@
       <c r="C8" s="16"/>
       <c r="D8" s="22"/>
       <c r="E8" s="10">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="10">
@@ -841,7 +806,9 @@
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="19"/>
-      <c r="E9" s="12"/>
+      <c r="E9" s="12">
+        <v>0.9</v>
+      </c>
       <c r="F9" s="21"/>
       <c r="G9" s="12">
         <v>0.8</v>
@@ -858,7 +825,9 @@
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="12"/>
+      <c r="E10" s="12">
+        <v>0.9</v>
+      </c>
       <c r="F10" s="21"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -873,7 +842,9 @@
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12">
+        <v>0.9</v>
+      </c>
       <c r="F11" s="21"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -888,7 +859,9 @@
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12">
+        <v>0.9</v>
+      </c>
       <c r="F12" s="21"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -1063,7 +1036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1075,7 +1048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/2.3-SE-4348.502-OS/Grades.xlsx
+++ b/2.3-SE-4348.502-OS/Grades.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5430" windowWidth="28755" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="6030" windowWidth="28755" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -634,7 +634,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +759,7 @@
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
-        <v>0.52800000000000002</v>
+        <v>0.54</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
@@ -776,7 +776,7 @@
       <c r="I7" s="23"/>
       <c r="J7" s="23">
         <f>SUM(C7:H7)</f>
-        <v>0.84800000000000009</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="5"/>
@@ -788,7 +788,7 @@
       <c r="C8" s="16"/>
       <c r="D8" s="22"/>
       <c r="E8" s="10">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="10">
@@ -807,7 +807,7 @@
       <c r="C9" s="17"/>
       <c r="D9" s="19"/>
       <c r="E9" s="12">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="12">
@@ -826,7 +826,7 @@
       <c r="C10" s="17"/>
       <c r="D10" s="19"/>
       <c r="E10" s="12">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="12"/>
@@ -843,7 +843,7 @@
       <c r="C11" s="17"/>
       <c r="D11" s="19"/>
       <c r="E11" s="12">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="12"/>
@@ -860,7 +860,7 @@
       <c r="C12" s="17"/>
       <c r="D12" s="19"/>
       <c r="E12" s="12">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="12"/>

--- a/2.3-SE-4348.502-OS/Grades.xlsx
+++ b/2.3-SE-4348.502-OS/Grades.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Desktop\Screen-Cleaner\GitHub\UTDFall2018\2.3-SE-4348.502-OS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDFall2018\2.3-SE-4348.502-OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B065F09-2197-4AB3-B82D-DC21393104ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6030" windowWidth="28755" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="6030" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,6 +421,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -455,6 +473,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -630,11 +665,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +794,7 @@
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
-        <v>0.54</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
@@ -776,7 +811,7 @@
       <c r="I7" s="23"/>
       <c r="J7" s="23">
         <f>SUM(C7:H7)</f>
-        <v>0.8600000000000001</v>
+        <v>0.87200000000000011</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="5"/>
@@ -788,7 +823,7 @@
       <c r="C8" s="16"/>
       <c r="D8" s="22"/>
       <c r="E8" s="10">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="10">
@@ -1036,7 +1071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1048,7 +1083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/2.3-SE-4348.502-OS/Grades.xlsx
+++ b/2.3-SE-4348.502-OS/Grades.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDFall2018\2.3-SE-4348.502-OS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Desktop\Screen-Cleaner\GitHub\UTDFall2018\2.3-SE-4348.502-OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B065F09-2197-4AB3-B82D-DC21393104ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6030" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6630" windowWidth="28755" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -73,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,23 +420,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -473,23 +455,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -665,7 +630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -794,7 +759,7 @@
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
-        <v>0.55200000000000005</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
@@ -802,7 +767,7 @@
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
-        <v>0.32000000000000006</v>
+        <v>0.31600000000000006</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="1"/>
@@ -811,7 +776,7 @@
       <c r="I7" s="23"/>
       <c r="J7" s="23">
         <f>SUM(C7:H7)</f>
-        <v>0.87200000000000011</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="5"/>
@@ -827,7 +792,7 @@
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="10">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="23"/>
@@ -861,7 +826,7 @@
       <c r="C10" s="17"/>
       <c r="D10" s="19"/>
       <c r="E10" s="12">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="12"/>
@@ -1071,7 +1036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1083,7 +1048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/2.3-SE-4348.502-OS/Grades.xlsx
+++ b/2.3-SE-4348.502-OS/Grades.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Desktop\Screen-Cleaner\GitHub\UTDFall2018\2.3-SE-4348.502-OS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\UTDFall2018\2.3-SE-4348.502-OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA622E4-DEA6-429C-A59C-F8EA2E100D74}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6630" windowWidth="28755" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="6630" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,6 +421,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -455,6 +473,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -630,7 +665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -759,7 +794,7 @@
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
-        <v>0.53400000000000003</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
@@ -776,7 +811,7 @@
       <c r="I7" s="23"/>
       <c r="J7" s="23">
         <f>SUM(C7:H7)</f>
-        <v>0.85000000000000009</v>
+        <v>0.87400000000000011</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="5"/>
@@ -826,7 +861,7 @@
       <c r="C10" s="17"/>
       <c r="D10" s="19"/>
       <c r="E10" s="12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="12"/>
@@ -1036,7 +1071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1048,7 +1083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/2.3-SE-4348.502-OS/Grades.xlsx
+++ b/2.3-SE-4348.502-OS/Grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\UTDFall2018\2.3-SE-4348.502-OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA622E4-DEA6-429C-A59C-F8EA2E100D74}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA8B7AE-BFF4-4AF7-91FC-4A1DA1D7441F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="6630" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -669,7 +670,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +803,7 @@
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
-        <v>0.31600000000000006</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="1"/>
@@ -811,7 +812,7 @@
       <c r="I7" s="23"/>
       <c r="J7" s="23">
         <f>SUM(C7:H7)</f>
-        <v>0.87400000000000011</v>
+        <v>0.81400000000000006</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="5"/>
@@ -846,7 +847,7 @@
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="12">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="23"/>
